--- a/OnCall/On Call Report (2023 04 24 to 2023 04 30).xlsx
+++ b/OnCall/On Call Report (2023 04 24 to 2023 04 30).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\OnCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311C20C9-0E30-4711-AB66-9F3AB8E714F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F52CE2-B5D9-400C-A42E-6A4B66CF6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07807D70-889A-45DD-85A1-D639FD9C44AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{07807D70-889A-45DD-85A1-D639FD9C44AC}"/>
   </bookViews>
   <sheets>
     <sheet name="DeadLocks" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -423,23 +423,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -757,33 +755,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080BAB0E-E53E-4408-B883-E0A7FE67D64D}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="124.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="124.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -799,400 +797,400 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>45040.371769293983</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>13947</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>45040.547976701389</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>13952</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
         <v>45042.394433680558</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>13966</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>45043.385759571756</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>13980</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>45043.554823761573</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>13986</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="1">
         <v>45040.431464583336</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>13948</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="1">
         <v>45040.548121377316</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>13953</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="1">
         <v>45042.423516319446</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>13969</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="1">
         <v>45043.385817442133</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>13981</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>45043.581474999999</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>13987</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>45040.431522453706</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>13949</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>45041.530873460651</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>13959</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>45042.453813506945</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>13970</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>45043.511475115738</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>13984</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>45044.430232557868</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>13990</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="1">
         <v>45040.543549189817</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>13951</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="1">
         <v>45041.594042476849</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>13960</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="1">
         <v>45042.526414664353</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>13971</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="1">
         <v>45043.527188043983</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>13985</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="14">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12">
         <f>COUNT(F3:F21)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1208,60 +1206,60 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="1">
         <v>45041.041961192132</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>13955</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="1">
         <v>45043.041964583332</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>13975</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <f>COUNT(F24:F25)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1277,41 +1275,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="1">
         <v>45042.322967476852</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>13965</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="str">
         <f>A28</f>
         <v xml:space="preserve"> Report Server; SQLAgent - TSQL JobStep (Job 0x0567B2FB12699642B6B100E5B573C5A2 : Step 4) (victim)</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <f>COUNT(F28)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1327,121 +1325,121 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="1">
         <v>45045.083387071762</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>13992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="1">
         <v>45043.083391585649</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <v>13976</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="1">
         <v>45042.083382604163</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>13961</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="1">
         <v>45041.08338611111</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>13956</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="1">
         <v>45046.083355358795</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>13993</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="str">
         <f>A35</f>
         <v xml:space="preserve"> SolarWinds SQL Sentry 2023.1-Server (victim); SQLAgent - TSQL JobStep (Job 0x12F8F3A5DE8C0A49A4FBCE999F3D7251 : Step 1)</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <f>COUNT(F31:F35)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1457,181 +1455,181 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="1">
         <v>45042.397558946759</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <v>13968</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="1">
         <v>45046.796564502314</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>13994</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="1">
         <v>45040.530846261572</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <v>13950</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="1">
         <v>45042.631497071758</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <v>13974</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="1">
         <v>45040.817025810182</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>13954</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="1">
         <v>45043.482509409725</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <v>13983</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="1">
         <v>45042.320789351848</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="7">
         <v>13964</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="1">
         <v>45043.751303553239</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>13988</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11" t="str">
         <f>A45</f>
         <v xml:space="preserve"> SolarWinds SQL Sentry 2023.1-Server; SolarWinds SQL Sentry 2023.1-Server (victim)</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="12">
         <f>COUNT(F38:F45)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -1647,141 +1645,141 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="1">
         <v>45041.312743171293</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="7">
         <v>13957</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="1">
         <v>45043.31294077546</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="7">
         <v>13978</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="1">
         <v>45043.312882835649</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="7">
         <v>13977</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="1">
         <v>45042.312823576387</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="7">
         <v>13963</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="1">
         <v>45042.312765740739</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="7">
         <v>13962</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="1">
         <v>45043.312969756946</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="10">
         <v>13979</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="str">
         <f>A53</f>
         <v xml:space="preserve"> SQLAgent - TSQL JobStep (Job 0xB74C062D424E3A4F9B938A2879828D53 : Step 1)</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="12">
         <f>COUNT(F48:F53)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1797,41 +1795,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="1">
         <v>45044.461860914351</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="10">
         <v>13991</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="11" t="str">
         <f>A56</f>
         <v xml:space="preserve"> SQLAgent - TSQL JobStep (Job 0xF1209678B7E6B04097FBA6528CA1AC9D : Step 1) (victim); SYSPRO 8 e.net Communications Load Balancer</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="12">
         <f>COUNT(F56)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -1847,41 +1845,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="1">
         <v>45042.396719675926</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="10">
         <v>13967</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="11" t="str">
         <f>A59</f>
         <v xml:space="preserve"> SUGARCRM_UPSERT (victim); SYSPRO</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="12">
         <f>COUNT(F59)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -1897,40 +1895,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="1">
         <v>45044.347036689818</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="10">
         <v>13989</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="12">
         <f>COUNT(F62)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -1946,91 +1944,91 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="1">
         <v>45043.40967523148</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" t="s">
         <v>48</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="7">
         <v>13982</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="1">
         <v>45042.594559722223</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" t="s">
         <v>49</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="7">
         <v>13973</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="1">
         <v>45042.594501851854</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="7">
         <v>13972</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="1">
         <v>45041.511052199072</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="10">
         <v>13958</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="12">
         <f>COUNT(F65:F68)</f>
         <v>4</v>
       </c>
@@ -2046,35 +2044,35 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2102,113 +2100,113 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>34068664</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <v>20230426</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <v>214108</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>34053250</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4">
         <v>20230425</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4">
         <v>214117</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>34037842</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>20230424</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>214122</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="str">
         <f>A5</f>
         <v>B2C Website - Inventory Feeds</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <f>COUNT(E3:E5)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -2240,145 +2238,145 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>34073497</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>20230427</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <v>100239</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>34056073</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>20230426</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>81029</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>34055899</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>20230426</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>80448</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:10" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>34051392</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>20230425</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>180000</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="str">
         <f>A11</f>
         <v>eCat Upload - Summer Classics Retail (Images)</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>COUNT(E8:E11)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -2410,81 +2408,81 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>34053223</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <v>20230425</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14">
         <v>213500</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14">
         <v>16</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:10" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>34037815</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>20230424</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>213500</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>16</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="str">
         <f>A15</f>
         <v>Isi_Automated Transfers In to X and Donation Warehouses</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f>COUNT(E14:E15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -2516,44 +2514,44 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>34090001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>20230428</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>110500</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>13</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="str">
         <f>A18</f>
         <v>Syspro Maintenance Constant</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <f>COUNT(E18)</f>
         <v>1</v>
       </c>
